--- a/Analyzed/try2/data_2010.xlsx
+++ b/Analyzed/try2/data_2010.xlsx
@@ -541,13 +541,13 @@
         <v>1386.711</v>
       </c>
       <c r="L2">
-        <v>71.5</v>
+        <v>2502.5</v>
       </c>
       <c r="M2">
         <v>63.53424488640756</v>
       </c>
       <c r="N2">
-        <v>76.20999999999999</v>
+        <v>2210.09</v>
       </c>
       <c r="O2">
         <v>1009.15</v>
@@ -592,7 +592,7 @@
         <v>1</v>
       </c>
       <c r="AC2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -632,13 +632,13 @@
         <v>1879.656</v>
       </c>
       <c r="L3">
-        <v>67.40000000000001</v>
+        <v>2359</v>
       </c>
       <c r="M3">
         <v>59.22284545941468</v>
       </c>
       <c r="N3">
-        <v>82.90000000000001</v>
+        <v>2404.1</v>
       </c>
       <c r="O3">
         <v>914.9399999999999</v>
@@ -683,7 +683,7 @@
         <v>1</v>
       </c>
       <c r="AC3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -723,13 +723,13 @@
         <v>1642.08</v>
       </c>
       <c r="L4">
-        <v>74.40000000000001</v>
+        <v>2604</v>
       </c>
       <c r="M4">
         <v>51.88945103243331</v>
       </c>
       <c r="N4">
-        <v>49.57</v>
+        <v>1437.53</v>
       </c>
       <c r="O4">
         <v>1140.8</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA4">
         <v>1</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -814,13 +814,13 @@
         <v>1173.839</v>
       </c>
       <c r="L5">
-        <v>79.7</v>
+        <v>2789.5</v>
       </c>
       <c r="M5">
         <v>58.75976063439661</v>
       </c>
       <c r="N5">
-        <v>-34.88</v>
+        <v>-1011.52</v>
       </c>
       <c r="O5">
         <v>895.3200000000001</v>
@@ -853,10 +853,10 @@
         <v>1</v>
       </c>
       <c r="Y5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA5">
         <v>3</v>
@@ -865,7 +865,7 @@
         <v>4</v>
       </c>
       <c r="AC5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -905,13 +905,13 @@
         <v>1709.778</v>
       </c>
       <c r="L6">
-        <v>60.7</v>
+        <v>2124.5</v>
       </c>
       <c r="M6">
         <v>64.98311308027664</v>
       </c>
       <c r="N6">
-        <v>54.51000000000001</v>
+        <v>1580.79</v>
       </c>
       <c r="O6">
         <v>951.5599999999999</v>
@@ -944,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6">
         <v>1</v>
@@ -996,13 +996,13 @@
         <v>1281.603</v>
       </c>
       <c r="L7">
-        <v>67.3</v>
+        <v>2355.5</v>
       </c>
       <c r="M7">
         <v>61.98852703573504</v>
       </c>
       <c r="N7">
-        <v>35.55</v>
+        <v>1030.95</v>
       </c>
       <c r="O7">
         <v>1261.35</v>
@@ -1035,10 +1035,10 @@
         <v>5</v>
       </c>
       <c r="Y7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="AC7">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1087,13 +1087,13 @@
         <v>921.587</v>
       </c>
       <c r="L8">
-        <v>56.5</v>
+        <v>1977.5</v>
       </c>
       <c r="M8">
         <v>58.77302470017552</v>
       </c>
       <c r="N8">
-        <v>56.28</v>
+        <v>1632.12</v>
       </c>
       <c r="O8">
         <v>981.1799999999999</v>
@@ -1126,10 +1126,10 @@
         <v>5</v>
       </c>
       <c r="Y8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA8">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>1331.694</v>
       </c>
       <c r="L9">
-        <v>54.1</v>
+        <v>1893.5</v>
       </c>
       <c r="M9">
         <v>72.69707871863345</v>
       </c>
       <c r="N9">
-        <v>8.070000000000007</v>
+        <v>234.0300000000002</v>
       </c>
       <c r="O9">
         <v>1113.6</v>
@@ -1217,10 +1217,10 @@
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9">
         <v>0</v>
